--- a/4. cosine similarity (synonym)/synonym_stemmed.xlsx
+++ b/4. cosine similarity (synonym)/synonym_stemmed.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="102">
   <si>
     <t>term</t>
   </si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>earli</t>
+  </si>
+  <si>
+    <t>advanced</t>
   </si>
 </sst>
 </file>
@@ -708,7 +711,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,16 +744,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -758,16 +761,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -775,16 +778,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -792,16 +795,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -809,16 +812,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -826,16 +829,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -843,16 +846,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -860,16 +863,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -877,16 +880,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -894,16 +897,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -911,16 +914,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -928,16 +931,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -945,16 +948,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -962,16 +965,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -979,16 +982,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -996,16 +999,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1013,16 +1016,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1030,16 +1033,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1047,16 +1050,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1064,16 +1067,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1081,16 +1084,16 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1098,16 +1101,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1115,16 +1118,16 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1132,16 +1135,16 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1149,16 +1152,16 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1166,16 +1169,16 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1183,16 +1186,16 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1200,16 +1203,16 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1217,16 +1220,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1234,16 +1237,16 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1251,16 +1254,16 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1268,16 +1271,16 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1285,16 +1288,16 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1302,16 +1305,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1319,16 +1322,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1336,16 +1339,16 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1353,16 +1356,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1370,10 +1373,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>40</v>
